--- a/teaching/traditional_assets/database/data/nigeria/nigeria_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_insurance_life.xlsx
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.263</v>
+        <v>0.17105</v>
       </c>
       <c r="E2">
-        <v>0.385</v>
+        <v>0.244</v>
       </c>
       <c r="G2">
-        <v>0.01382775119617225</v>
+        <v>-0.003733876442634084</v>
       </c>
       <c r="H2">
-        <v>0.01382775119617225</v>
+        <v>-0.003733876442634084</v>
       </c>
       <c r="I2">
-        <v>0.08317703349282297</v>
+        <v>-0.02783435166327223</v>
       </c>
       <c r="J2">
-        <v>0.05950178289807811</v>
+        <v>-0.02783435166327223</v>
       </c>
       <c r="K2">
-        <v>16.396</v>
+        <v>-5.099999999999998</v>
       </c>
       <c r="L2">
-        <v>0.07844976076555024</v>
+        <v>-0.01731160896130345</v>
       </c>
       <c r="M2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.04563492063492063</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.07013905830690412</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04563492063492063</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.07013905830690412</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>27</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="V2">
-        <v>1.071428571428571</v>
+        <v>0.9790277777777777</v>
       </c>
       <c r="W2">
-        <v>0.216806551467419</v>
+        <v>0.8692423105776443</v>
       </c>
       <c r="X2">
-        <v>0.1454695764857488</v>
+        <v>0.1121406688681119</v>
       </c>
       <c r="Y2">
-        <v>0.07133697498167021</v>
+        <v>0.7571016417095324</v>
       </c>
       <c r="Z2">
-        <v>-19.53271028037383</v>
+        <v>19.66622162883845</v>
       </c>
       <c r="AA2">
-        <v>0.457426367989814</v>
+        <v>0.8278485467910276</v>
       </c>
       <c r="AB2">
-        <v>0.124543001036916</v>
+        <v>0.1074833294770007</v>
       </c>
       <c r="AC2">
-        <v>0.332883366952898</v>
+        <v>0.7203652173140268</v>
       </c>
       <c r="AD2">
-        <v>8.09</v>
+        <v>5.12</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.09</v>
+        <v>5.12</v>
       </c>
       <c r="AG2">
-        <v>-18.91</v>
+        <v>-65.36999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.2430159206969059</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="AI2">
-        <v>0.1743910325501186</v>
+        <v>0.09188801148600145</v>
       </c>
       <c r="AJ2">
-        <v>-3.006359300476946</v>
+        <v>-9.859728506787315</v>
       </c>
       <c r="AK2">
-        <v>-0.9752449716348635</v>
+        <v>4.425863236289777</v>
       </c>
       <c r="AL2">
-        <v>1.446</v>
+        <v>1.402</v>
       </c>
       <c r="AM2">
-        <v>1.446</v>
+        <v>1.402</v>
       </c>
       <c r="AN2">
-        <v>0.4254983432388366</v>
+        <v>-0.8258064516129033</v>
       </c>
       <c r="AO2">
-        <v>12.02213001383126</v>
+        <v>-5.848787446504992</v>
       </c>
       <c r="AP2">
-        <v>-0.9945826539735969</v>
+        <v>10.54354838709677</v>
       </c>
       <c r="AQ2">
-        <v>12.02213001383126</v>
+        <v>-5.848787446504992</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AIICO Insurance Plc (NGSE:AIICO)</t>
+          <t>African Alliance Insurance Plc (NGSE:AFRINSURE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,121 +722,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.263</v>
-      </c>
-      <c r="E3">
-        <v>0.385</v>
+        <v>0.0131</v>
       </c>
       <c r="G3">
-        <v>0.0683371298405467</v>
+        <v>-0.5412621359223301</v>
       </c>
       <c r="H3">
-        <v>0.0683371298405467</v>
+        <v>-0.5412621359223301</v>
       </c>
       <c r="I3">
-        <v>0.1036446469248292</v>
+        <v>-0.6140776699029126</v>
       </c>
       <c r="J3">
-        <v>0.09646479428869573</v>
+        <v>-0.6140776699029126</v>
       </c>
       <c r="K3">
-        <v>16.2</v>
+        <v>-21.9</v>
       </c>
       <c r="L3">
-        <v>0.09225512528473805</v>
+        <v>-0.5315533980582523</v>
       </c>
       <c r="M3">
-        <v>1.15</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.08333333333333333</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.07098765432098765</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.15</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.08333333333333333</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.07098765432098765</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>19.3</v>
+        <v>2.49</v>
       </c>
       <c r="V3">
-        <v>1.398550724637681</v>
+        <v>0.2305555555555556</v>
       </c>
       <c r="W3">
-        <v>0.4475138121546961</v>
+        <v>1.412903225806452</v>
       </c>
       <c r="X3">
-        <v>0.1560136252446921</v>
+        <v>0.1136635459207394</v>
       </c>
       <c r="Y3">
-        <v>0.291500186910004</v>
+        <v>1.299239679885712</v>
       </c>
       <c r="Z3">
-        <v>9.340425531914892</v>
+        <v>-1.929742388758782</v>
       </c>
       <c r="AA3">
-        <v>0.9010222275050517</v>
+        <v>1.185011709601874</v>
       </c>
       <c r="AB3">
-        <v>0.1257460126892411</v>
+        <v>0.1078881594477103</v>
       </c>
       <c r="AC3">
-        <v>0.7752762148158105</v>
+        <v>1.077123550154163</v>
       </c>
       <c r="AD3">
-        <v>6.24</v>
+        <v>1.18</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.24</v>
+        <v>1.18</v>
       </c>
       <c r="AG3">
-        <v>-13.06</v>
+        <v>-1.31</v>
       </c>
       <c r="AH3">
-        <v>0.311377245508982</v>
+        <v>0.09849749582637729</v>
       </c>
       <c r="AI3">
-        <v>0.1039307128580946</v>
+        <v>-0.03369503141062249</v>
       </c>
       <c r="AJ3">
-        <v>-17.64864864864865</v>
+        <v>-0.1380400421496312</v>
       </c>
       <c r="AK3">
-        <v>-0.3205694648993618</v>
+        <v>0.03492402026126366</v>
       </c>
       <c r="AL3">
-        <v>0.849</v>
+        <v>0.525</v>
       </c>
       <c r="AM3">
-        <v>0.849</v>
+        <v>0.525</v>
       </c>
       <c r="AN3">
-        <v>0.32</v>
+        <v>-0.04738955823293173</v>
       </c>
       <c r="AO3">
-        <v>21.43698468786808</v>
+        <v>-48.19047619047619</v>
       </c>
       <c r="AP3">
-        <v>-0.6697435897435897</v>
+        <v>0.05261044176706828</v>
       </c>
       <c r="AQ3">
-        <v>21.43698468786808</v>
+        <v>-48.19047619047619</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>African Alliance Insurance Plc (NGSE:AFRINSURE)</t>
+          <t>AIICO Insurance Plc (NGSE:AIICO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -858,23 +849,29 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.329</v>
+      </c>
+      <c r="E4">
+        <v>0.244</v>
+      </c>
       <c r="G4">
-        <v>-0.2727544910179641</v>
+        <v>0.08366219415943173</v>
       </c>
       <c r="H4">
-        <v>-0.2727544910179641</v>
+        <v>0.08366219415943173</v>
       </c>
       <c r="I4">
-        <v>-0.0244311377245509</v>
+        <v>0.06748224151539069</v>
       </c>
       <c r="J4">
-        <v>-0.01221556886227545</v>
+        <v>0.06748224151539069</v>
       </c>
       <c r="K4">
-        <v>0.196</v>
+        <v>16.8</v>
       </c>
       <c r="L4">
-        <v>0.005868263473053892</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -898,73 +895,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>7.7</v>
+        <v>68</v>
       </c>
       <c r="V4">
-        <v>0.6754385964912281</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="W4">
-        <v>-0.01390070921985816</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="X4">
-        <v>0.1349255277268054</v>
+        <v>0.1106177918154844</v>
       </c>
       <c r="Y4">
-        <v>-0.1488262369466636</v>
+        <v>0.2149636035333529</v>
       </c>
       <c r="Z4">
-        <v>-1.132203389830508</v>
+        <v>6.974951830443159</v>
       </c>
       <c r="AA4">
-        <v>0.01383050847457627</v>
+        <v>0.4706853839801816</v>
       </c>
       <c r="AB4">
-        <v>0.1233399893845908</v>
+        <v>0.1070784995062912</v>
       </c>
       <c r="AC4">
-        <v>-0.1095094809100146</v>
+        <v>0.3636068844738904</v>
       </c>
       <c r="AD4">
-        <v>1.85</v>
+        <v>3.94</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.85</v>
+        <v>3.94</v>
       </c>
       <c r="AG4">
-        <v>-5.85</v>
+        <v>-64.06</v>
       </c>
       <c r="AH4">
-        <v>0.139622641509434</v>
+        <v>0.0604851089960086</v>
       </c>
       <c r="AI4">
-        <v>-0.1355311355311355</v>
+        <v>0.04342076261847036</v>
       </c>
       <c r="AJ4">
-        <v>-1.054054054054054</v>
+        <v>22.3986013986014</v>
       </c>
       <c r="AK4">
-        <v>0.2740046838407494</v>
+        <v>-2.817062445030783</v>
       </c>
       <c r="AL4">
-        <v>0.597</v>
+        <v>0.877</v>
       </c>
       <c r="AM4">
-        <v>0.597</v>
+        <v>0.877</v>
       </c>
       <c r="AN4">
-        <v>-3.798767967145791</v>
+        <v>0.2106951871657754</v>
       </c>
       <c r="AO4">
-        <v>-1.366834170854271</v>
+        <v>19.49828962371722</v>
       </c>
       <c r="AP4">
-        <v>12.01232032854209</v>
+        <v>-3.425668449197861</v>
       </c>
       <c r="AQ4">
-        <v>-1.366834170854271</v>
+        <v>19.49828962371722</v>
       </c>
     </row>
   </sheetData>
